--- a/Team-Data/2007-08/3-2-2007-08.xlsx
+++ b/Team-Data/2007-08/3-2-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.431</v>
+        <v>0.439</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -693,10 +760,10 @@
         <v>4.1</v>
       </c>
       <c r="M2" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O2" t="n">
         <v>21.2</v>
@@ -705,13 +772,13 @@
         <v>27.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R2" t="n">
         <v>12.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T2" t="n">
         <v>42.5</v>
@@ -723,7 +790,7 @@
         <v>15.5</v>
       </c>
       <c r="W2" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X2" t="n">
         <v>5.7</v>
@@ -732,16 +799,16 @@
         <v>5.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA2" t="n">
         <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD2" t="n">
         <v>22</v>
@@ -750,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>20</v>
@@ -774,7 +841,7 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
         <v>6</v>
@@ -795,13 +862,13 @@
         <v>10</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV2" t="n">
         <v>25</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>
@@ -816,10 +883,10 @@
         <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BC2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.793</v>
+        <v>0.789</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,10 +933,10 @@
         <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L3" t="n">
         <v>7.5</v>
@@ -878,28 +945,28 @@
         <v>19.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O3" t="n">
         <v>20.8</v>
       </c>
       <c r="P3" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S3" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T3" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V3" t="n">
         <v>15.3</v>
@@ -911,16 +978,16 @@
         <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
         <v>22.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC3" t="n">
         <v>9.699999999999999</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -965,28 +1032,28 @@
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>27</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
         <v>16</v>
@@ -995,7 +1062,7 @@
         <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
         <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>79.7</v>
       </c>
       <c r="K4" t="n">
         <v>0.445</v>
@@ -1063,52 +1130,52 @@
         <v>0.357</v>
       </c>
       <c r="O4" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P4" t="n">
         <v>25.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.709</v>
+        <v>0.705</v>
       </c>
       <c r="R4" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U4" t="n">
         <v>21.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>4.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1117,7 +1184,7 @@
         <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1141,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>12</v>
@@ -1162,16 +1229,16 @@
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>23</v>
@@ -1180,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="n">
         <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.39</v>
+        <v>0.397</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
@@ -1242,16 +1309,16 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.743</v>
+        <v>0.741</v>
       </c>
       <c r="R5" t="n">
         <v>13.4</v>
@@ -1263,13 +1330,13 @@
         <v>43.7</v>
       </c>
       <c r="U5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V5" t="n">
         <v>14.8</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X5" t="n">
         <v>5</v>
@@ -1284,28 +1351,28 @@
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1320,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>20</v>
@@ -1341,16 +1408,16 @@
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1421,7 +1488,7 @@
         <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N6" t="n">
         <v>0.361</v>
@@ -1433,16 +1500,16 @@
         <v>24.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.719</v>
+        <v>0.721</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S6" t="n">
         <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U6" t="n">
         <v>19.7</v>
@@ -1469,19 +1536,19 @@
         <v>97.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>3</v>
@@ -1493,34 +1560,34 @@
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN6" t="n">
         <v>13</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
         <v>25</v>
@@ -1529,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="AW6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
@@ -1538,7 +1605,7 @@
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
         <v>24</v>
@@ -1547,7 +1614,7 @@
         <v>16</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="n">
         <v>39</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.65</v>
+        <v>0.661</v>
       </c>
       <c r="H7" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I7" t="n">
         <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>79.09999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="L7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M7" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O7" t="n">
         <v>20.8</v>
@@ -1615,19 +1682,19 @@
         <v>25.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S7" t="n">
         <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V7" t="n">
         <v>12.9</v>
@@ -1639,31 +1706,31 @@
         <v>4.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA7" t="n">
         <v>21.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD7" t="n">
         <v>4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
@@ -1672,19 +1739,19 @@
         <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>9</v>
@@ -1705,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,13 +1781,13 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
         <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.593</v>
+        <v>0.603</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J8" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L8" t="n">
         <v>6.4</v>
@@ -1791,25 +1858,25 @@
         <v>0.34</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
         <v>12.1</v>
       </c>
       <c r="S8" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
         <v>15.3</v>
@@ -1818,31 +1885,31 @@
         <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA8" t="n">
         <v>23.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.3</v>
+        <v>107.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1854,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
         <v>15</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1890,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>8.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2048,13 +2115,13 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2063,7 +2130,7 @@
         <v>14</v>
       </c>
       <c r="AS9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
         <v>20</v>
@@ -2084,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA9" t="n">
         <v>23</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="n">
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.621</v>
+        <v>0.614</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2158,10 +2225,10 @@
         <v>18.9</v>
       </c>
       <c r="P10" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R10" t="n">
         <v>12.2</v>
@@ -2176,13 +2243,13 @@
         <v>23.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W10" t="n">
         <v>9.1</v>
       </c>
       <c r="X10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
         <v>4.9</v>
@@ -2191,13 +2258,13 @@
         <v>23.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB10" t="n">
         <v>110.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD10" t="n">
         <v>22</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2242,7 +2309,7 @@
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
@@ -2254,13 +2321,13 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -2304,52 +2371,52 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.661</v>
+        <v>0.655</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J11" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M11" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O11" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R11" t="n">
         <v>12.1</v>
       </c>
       <c r="S11" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T11" t="n">
         <v>44.6</v>
@@ -2373,25 +2440,25 @@
         <v>19.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>25</v>
@@ -2400,7 +2467,7 @@
         <v>14</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
@@ -2412,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2424,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
@@ -2433,25 +2500,25 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -2486,61 +2553,61 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>36</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J12" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M12" t="n">
         <v>24.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R12" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V12" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W12" t="n">
         <v>7.4</v>
@@ -2558,34 +2625,34 @@
         <v>22</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>102.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.1</v>
+        <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2597,10 +2664,10 @@
         <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
         <v>9</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-5.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
@@ -2785,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>28</v>
@@ -2806,7 +2873,7 @@
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
         <v>20</v>
@@ -2815,7 +2882,7 @@
         <v>22</v>
       </c>
       <c r="BA13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>0.695</v>
       </c>
       <c r="H14" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.48</v>
       </c>
       <c r="L14" t="n">
         <v>7.4</v>
@@ -2880,37 +2947,37 @@
         <v>20.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.368</v>
+        <v>0.371</v>
       </c>
       <c r="O14" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
       <c r="Q14" t="n">
         <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S14" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W14" t="n">
         <v>8.1</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
@@ -2919,16 +2986,16 @@
         <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
         <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2955,16 +3022,16 @@
         <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
         <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
         <v>14</v>
@@ -2973,16 +3040,16 @@
         <v>20</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2994,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3131,7 +3198,7 @@
         <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>7</v>
@@ -3143,10 +3210,10 @@
         <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" t="n">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J16" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M16" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O16" t="n">
         <v>17.9</v>
@@ -3253,43 +3320,43 @@
         <v>24.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.723</v>
+        <v>0.721</v>
       </c>
       <c r="R16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S16" t="n">
         <v>28.9</v>
       </c>
       <c r="T16" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="U16" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V16" t="n">
         <v>14.9</v>
       </c>
       <c r="W16" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.1</v>
+        <v>-7</v>
       </c>
       <c r="AD16" t="n">
         <v>22</v>
@@ -3310,10 +3377,10 @@
         <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,16 +3389,16 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3346,13 +3413,13 @@
         <v>21</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AX16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -3396,58 +3463,58 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" t="n">
-        <v>0.367</v>
+        <v>0.373</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J17" t="n">
-        <v>81</v>
+        <v>80.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M17" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
         <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R17" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="U17" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V17" t="n">
         <v>14.6</v>
@@ -3456,7 +3523,7 @@
         <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y17" t="n">
         <v>5.1</v>
@@ -3465,16 +3532,16 @@
         <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.6</v>
+        <v>-6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
@@ -3486,13 +3553,13 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -3501,13 +3568,13 @@
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3516,13 +3583,13 @@
         <v>19</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU17" t="n">
         <v>20</v>
@@ -3534,7 +3601,7 @@
         <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -3546,7 +3613,7 @@
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -3578,34 +3645,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>0.207</v>
+        <v>0.211</v>
       </c>
       <c r="H18" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J18" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="N18" t="n">
         <v>0.335</v>
@@ -3617,25 +3684,25 @@
         <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.722</v>
+        <v>0.725</v>
       </c>
       <c r="R18" t="n">
         <v>12.2</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U18" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="V18" t="n">
         <v>15.3</v>
       </c>
       <c r="W18" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
         <v>3.7</v>
@@ -3644,16 +3711,16 @@
         <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="AD18" t="n">
         <v>22</v>
@@ -3662,28 +3729,28 @@
         <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
         <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN18" t="n">
         <v>27</v>
@@ -3695,13 +3762,13 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT18" t="n">
         <v>17</v>
@@ -3710,16 +3777,16 @@
         <v>27</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" t="n">
         <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.441</v>
+        <v>0.448</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="J19" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M19" t="n">
         <v>17.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O19" t="n">
         <v>20.2</v>
@@ -3799,7 +3866,7 @@
         <v>27.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.726</v>
+        <v>0.724</v>
       </c>
       <c r="R19" t="n">
         <v>11.6</v>
@@ -3811,7 +3878,7 @@
         <v>42.6</v>
       </c>
       <c r="U19" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="V19" t="n">
         <v>15.5</v>
@@ -3832,22 +3899,22 @@
         <v>22.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
         <v>18</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>8</v>
@@ -3856,7 +3923,7 @@
         <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3874,10 +3941,10 @@
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
@@ -3889,7 +3956,7 @@
         <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -3942,34 +4009,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="n">
         <v>39</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.672</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L20" t="n">
         <v>7.8</v>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N20" t="n">
         <v>0.389</v>
@@ -3981,19 +4048,19 @@
         <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S20" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T20" t="n">
         <v>42.2</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
         <v>12.3</v>
@@ -4005,19 +4072,19 @@
         <v>3.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA20" t="n">
         <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AD20" t="n">
         <v>22</v>
@@ -4026,7 +4093,7 @@
         <v>5</v>
       </c>
       <c r="AF20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG20" t="n">
         <v>5</v>
@@ -4038,16 +4105,16 @@
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK20" t="n">
         <v>8</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>7</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
       </c>
       <c r="AM20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN20" t="n">
         <v>2</v>
@@ -4062,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="AR20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS20" t="n">
         <v>15</v>
@@ -4071,19 +4138,19 @@
         <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4223,10 +4290,10 @@
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="n">
         <v>15</v>
@@ -4235,7 +4302,7 @@
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
         <v>10</v>
@@ -4244,10 +4311,10 @@
         <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -4396,7 +4463,7 @@
         <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -4426,7 +4493,7 @@
         <v>24</v>
       </c>
       <c r="AR22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS22" t="n">
         <v>5</v>
@@ -4447,7 +4514,7 @@
         <v>24</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>15</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -4572,22 +4639,22 @@
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4617,7 +4684,7 @@
         <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
         <v>19</v>
@@ -4626,13 +4693,13 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>5</v>
@@ -4760,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP24" t="n">
         <v>24</v>
@@ -4796,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" t="n">
         <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.517</v>
+        <v>0.525</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J25" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.45</v>
@@ -4882,10 +4949,10 @@
         <v>17.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P25" t="n">
         <v>23.4</v>
@@ -4897,40 +4964,40 @@
         <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U25" t="n">
         <v>21.2</v>
       </c>
       <c r="V25" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W25" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X25" t="n">
         <v>4.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z25" t="n">
         <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4948,22 +5015,22 @@
         <v>24</v>
       </c>
       <c r="AJ25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
         <v>18</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -4972,13 +5039,13 @@
         <v>12</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AU25" t="n">
         <v>19</v>
@@ -4993,19 +5060,19 @@
         <v>20</v>
       </c>
       <c r="AY25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" t="n">
         <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>0.458</v>
+        <v>0.448</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J26" t="n">
-        <v>79.5</v>
+        <v>79.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M26" t="n">
         <v>17.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.373</v>
       </c>
       <c r="O26" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="P26" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.789</v>
+        <v>0.787</v>
       </c>
       <c r="R26" t="n">
         <v>10.5</v>
@@ -5082,10 +5149,10 @@
         <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V26" t="n">
         <v>16.1</v>
@@ -5094,10 +5161,10 @@
         <v>7.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z26" t="n">
         <v>22.3</v>
@@ -5106,25 +5173,25 @@
         <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
       </c>
       <c r="AG26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH26" t="n">
         <v>17</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>18</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -5133,34 +5200,34 @@
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
@@ -5169,10 +5236,10 @@
         <v>29</v>
       </c>
       <c r="AW26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5181,7 +5248,7 @@
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.707</v>
+        <v>0.702</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
@@ -5234,43 +5301,43 @@
         <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L27" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M27" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O27" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P27" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T27" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U27" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V27" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
@@ -5282,16 +5349,16 @@
         <v>4.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA27" t="n">
         <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD27" t="n">
         <v>22</v>
@@ -5306,7 +5373,7 @@
         <v>3</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5315,7 +5382,7 @@
         <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>5</v>
@@ -5324,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
         <v>27</v>
@@ -5333,10 +5400,10 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
@@ -5345,7 +5412,7 @@
         <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5357,19 +5424,19 @@
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB27" t="n">
         <v>19</v>
       </c>
       <c r="BC27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
         <v>43</v>
       </c>
       <c r="G28" t="n">
-        <v>0.271</v>
+        <v>0.259</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J28" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L28" t="n">
         <v>4.1</v>
       </c>
       <c r="M28" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O28" t="n">
         <v>17.5</v>
@@ -5437,7 +5504,7 @@
         <v>22.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
         <v>12.1</v>
@@ -5446,37 +5513,37 @@
         <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V28" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W28" t="n">
         <v>6.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA28" t="n">
         <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.3</v>
+        <v>-7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,16 +5555,16 @@
         <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL28" t="n">
         <v>28</v>
@@ -5506,28 +5573,28 @@
         <v>28</v>
       </c>
       <c r="AN28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
         <v>25</v>
       </c>
       <c r="AQ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR28" t="n">
         <v>10</v>
       </c>
-      <c r="AR28" t="n">
-        <v>11</v>
-      </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5542,7 +5609,7 @@
         <v>25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA28" t="n">
         <v>27</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -5580,46 +5647,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" t="n">
         <v>32</v>
       </c>
       <c r="F29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.552</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I29" t="n">
         <v>37.8</v>
       </c>
       <c r="J29" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L29" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.413</v>
+        <v>0.415</v>
       </c>
       <c r="O29" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P29" t="n">
         <v>20.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.699999999999999</v>
@@ -5628,25 +5695,25 @@
         <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U29" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V29" t="n">
         <v>11.7</v>
       </c>
       <c r="W29" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="n">
         <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA29" t="n">
         <v>18.3</v>
@@ -5655,7 +5722,7 @@
         <v>100.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AD29" t="n">
         <v>22</v>
@@ -5667,7 +5734,7 @@
         <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>12</v>
@@ -5676,7 +5743,7 @@
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
@@ -5718,19 +5785,19 @@
         <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -5852,7 +5919,7 @@
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
@@ -5873,22 +5940,22 @@
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>0.492</v>
+        <v>0.483</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5962,7 +6029,7 @@
         <v>36.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K31" t="n">
         <v>0.44</v>
@@ -5974,13 +6041,13 @@
         <v>19</v>
       </c>
       <c r="N31" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O31" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P31" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.792</v>
@@ -5998,7 +6065,7 @@
         <v>18.8</v>
       </c>
       <c r="V31" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W31" t="n">
         <v>7.9</v>
@@ -6019,10 +6086,10 @@
         <v>98</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6043,16 +6110,16 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6067,7 +6134,7 @@
         <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
         <v>15</v>
@@ -6076,19 +6143,19 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-2-2007-08</t>
+          <t>2008-03-02</t>
         </is>
       </c>
     </row>
